--- a/medicine/Mort/Lanterne_des_morts_d'Oradour-Saint-Genest/Lanterne_des_morts_d'Oradour-Saint-Genest.xlsx
+++ b/medicine/Mort/Lanterne_des_morts_d'Oradour-Saint-Genest/Lanterne_des_morts_d'Oradour-Saint-Genest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lanterne_des_morts_d%27Oradour-Saint-Genest</t>
+          <t>Lanterne_des_morts_d'Oradour-Saint-Genest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La lanterne des morts d'Oradour-Saint-Genest est un monument funéraire, situé sur la commune d'Oradour-Saint-Genest, dans le département français de la Haute-Vienne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lanterne_des_morts_d%27Oradour-Saint-Genest</t>
+          <t>Lanterne_des_morts_d'Oradour-Saint-Genest</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La lanterne est située dans le cimetière, sur le territoire de la commune d'Oradour-Saint-Genest, dans le département de la Haute-Vienne, en région Nouvelle-Aquitaine, en France.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lanterne_des_morts_d%27Oradour-Saint-Genest</t>
+          <t>Lanterne_des_morts_d'Oradour-Saint-Genest</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La lanterne date du XIIe siècle (ou XIIIe siècle[1]) et le cimetière dans lequel elle se trouve dépendait autrefois du monastère des Récollets[2]. Le fanal a été restauré en 1902[3].
-Le monument est classé au titre des monuments historiques par arrêté du 28 juin 1899[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lanterne date du XIIe siècle (ou XIIIe siècle) et le cimetière dans lequel elle se trouve dépendait autrefois du monastère des Récollets. Le fanal a été restauré en 1902.
+Le monument est classé au titre des monuments historiques par arrêté du 28 juin 1899.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lanterne_des_morts_d%27Oradour-Saint-Genest</t>
+          <t>Lanterne_des_morts_d'Oradour-Saint-Genest</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le monument est en granite et a une hauteur de 8,86 mètres, faisant de lui le plus haut de la Haute-Vienne[4]. Cette hauteur se décompose comme suit : 70 centimètres pour les.marches, 1 mètre pour l'autel et 7,16 mètres pour la colonne[5]
-Le monument repose sur un socle à quatre marches[3] sur lequel s'élève un fût octogonal creux[4]. La colonne abrite un système de cavités échelonnées[6] permettant de hisser la flamme jusqu'au sommet. Au sommet, une lanterne conique à huit ouvertures[2] permettait que la lumière fut vue en dehors du cimetière[4]. Une croix en pierre surmonte la lanterne et un autel grossier orienté s’appuie sur la colonne[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le monument est en granite et a une hauteur de 8,86 mètres, faisant de lui le plus haut de la Haute-Vienne. Cette hauteur se décompose comme suit : 70 centimètres pour les.marches, 1 mètre pour l'autel et 7,16 mètres pour la colonne
+Le monument repose sur un socle à quatre marches sur lequel s'élève un fût octogonal creux. La colonne abrite un système de cavités échelonnées permettant de hisser la flamme jusqu'au sommet. Au sommet, une lanterne conique à huit ouvertures permettait que la lumière fut vue en dehors du cimetière. Une croix en pierre surmonte la lanterne et un autel grossier orienté s’appuie sur la colonne.
 </t>
         </is>
       </c>
